--- a/assets/reporteexcel/documento.xlsx
+++ b/assets/reporteexcel/documento.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AEF89-0731-404B-9A82-B2E66C17176A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FDBBD-05BC-8C46-AFFA-DDA7578AA9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3880" windowWidth="28780" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -120,22 +120,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44236</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B26053C-5E50-53CF-F6D3-3E4032806A26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -151,8 +151,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="95250"/>
-          <a:ext cx="1790700" cy="463336"/>
+          <a:off x="0" y="25400"/>
+          <a:ext cx="1270000" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -430,19 +430,19 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="11" width="9.109375" style="3"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="11" width="9.1640625" style="3"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -457,7 +457,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -471,7 +471,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -485,7 +485,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
